--- a/medicine/Enfance/Isabelle_Chatellard/Isabelle_Chatellard.xlsx
+++ b/medicine/Enfance/Isabelle_Chatellard/Isabelle_Chatellard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isabelle Chatellard (née le 24 janvier 1970 à Sallanches (Haute-Savoie), est une illustratrice française. Elle vit à Lyon. 
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Isabelle Chatellard suit une formation artistique à l'École Émile-Cohl à Lyon de 1989 à 1992. On lui doit, depuis 1990, une cinquantaine d'albums traduits dans plusieurs langues (espagnol, italien, anglais, japonais, néerlandais, portugais…) et illustrés chez Autrement, Bilboquet, Didier, Flammarion, Milan, Tourbillon, à L'École des loisirs, aux Éditions du Rouergue… Elle travaille notamment sur des textes d'Anne-Sophie de Monsabert et d'Hubert Ben Kemoun.
 Le monde du cirque et de la marionnette est pour elle une source d'inspiration.
 On lui doit également les illustrations de l'album Pantin, la pirouette à partir duquel Jean-François Laguionie a écrit un film de court métrage d'animation, Pantin la Pirouette, réalisé par Hubert Chevillard, produit par La Fabrique en 2000, dans lequel une discussion animée a lieu entre les différents jouets peuplant un magasin qui vient d'éteindre ses lumières.
-En 1997, elle est récompensée par la Pomme d'Or de Bratislava[1] de la Biennale d'illustration de Bratislava, pour Les Chocottes (texte Olivier Douzou) et pour Olivia à Paris (texte de Rascal).
+En 1997, elle est récompensée par la Pomme d'Or de Bratislava de la Biennale d'illustration de Bratislava, pour Les Chocottes (texte Olivier Douzou) et pour Olivia à Paris (texte de Rascal).
 Elle réalise également les vitrines de Noël du Printemps Haussmann à Paris en décembre 2002.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Quelques œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Petit Tour, texte d'Anne-Sophie de Monsabert, Autrement jeunesse (1990)
 Le Dragon Bonaventure, texte de Jean Ollivier, coll. « Farandole en poche », (1993)
@@ -569,8 +585,8 @@
 Les Lutins du père Noël, Flammarion (2004)
 Le Cirque aux étoiles, texte d'Hélène Kerillis, Bilboquet (2005)
 Les histoires d'amour ne sont pas toujours simples, texte d'Hubert Ben Kemoun, Tourbillon, 2005
-Le vengeur masqué des contes de fées[2], texte Christine Beigel, Gautier-Languereau, 2008
-Les Chaussures[3], texte de Gigi Bigot et Pépito Matéo, Didier Jeunesse (2010)
+Le vengeur masqué des contes de fées, texte Christine Beigel, Gautier-Languereau, 2008
+Les Chaussures, texte de Gigi Bigot et Pépito Matéo, Didier Jeunesse (2010)
 La princesse au secret, texte de Carl Norac, Gautier-Languereau, 2010
 Rendez-vous sous la lune, texte de Carl Norac, Pastel, 2011
 Mon ti chien, texte de Carl Norac, Didier jeunesse, 2012
@@ -602,10 +618,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Chrétien de Troyes 1995[4] pour Ermeline et sa machine, texte de Olivier Douzou
- Pomme d'Or de Bratislava 1997[1], lors de la Biennale d'illustration de Bratislava, pour Les Chocottes (texte Olivier Douzou) et pour Olivia à Paris (texte de Rascal).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix Chrétien de Troyes 1995 pour Ermeline et sa machine, texte de Olivier Douzou
+ Pomme d'Or de Bratislava 1997, lors de la Biennale d'illustration de Bratislava, pour Les Chocottes (texte Olivier Douzou) et pour Olivia à Paris (texte de Rascal).
 Sélection à la Foire du livre de jeunesse de Bologne (Italie) de 1994 à 2008.
 Sélections à le immagini della fantasia à Sarmede (Italie).
 Sélection à Illustrarte (Portugal).
@@ -637,7 +655,9 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Galerie Jeanne Robillard, Paris,
 Galerie L’Art à la page, Paris,
